--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>快遞專區倉單</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -156,6 +156,22 @@
   <si>
     <t>${table:data.IL_GETNAME}</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>特貨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.SPG_SPECIALGOODS}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋數:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${OL_COUNT}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -249,7 +265,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,22 +284,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -291,7 +310,7 @@
     <cellStyle name="3232" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -311,6 +330,64 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -658,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -670,13 +747,13 @@
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="51.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.25" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="58.25" style="3" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="3" bestFit="1" customWidth="1"/>
@@ -685,50 +762,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,103 +820,110 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" ht="33">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="33">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$5:$B$62731,B4)+COUNTIF($B$1:$B$4,B4)&gt;1,NOT(ISBLANK(B4)))</formula>
+      <formula>AND(COUNTIF($B$5:$B$62731,C4)+COUNTIF($B$1:$B$4,C4)&gt;1,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:M1000 S5:XFD1000 N5:R999">
+  <conditionalFormatting sqref="A5:XFD1000">
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>#REF!="特特貨"</formula>
+      <formula>$A5="特特貨"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>#REF!="普特貨"</formula>
+      <formula>$A5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>快遞專區倉單</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -70,10 +70,6 @@
 (Address)</t>
   </si>
   <si>
-    <t>報關貨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>稅費歸屬</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -166,12 +162,40 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>袋數:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${OL_COUNT}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>報關種類</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_TAX2}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_REMARK}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_G1EX}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件者統編</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件電話</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_EXTEL}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_EXNO}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -265,7 +289,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,28 +317,54 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="3232" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -352,42 +402,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -736,13 +750,13 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
@@ -762,20 +776,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -786,33 +800,29 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,86 +832,108 @@
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1" ht="33">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>9</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -914,20 +946,25 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>AND(COUNTIF($B$5:$B$62731,C4)+COUNTIF($B$1:$B$4,C4)&gt;1,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD1000">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$A5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$A5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B1000">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>LENB($B5)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>快遞專區倉單</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -166,35 +166,67 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>備註</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_REMARK}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_G1EX}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件者統編</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件電話</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_EXTEL}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_EXNO}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原數量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_PCS}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新收件人或公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新收件地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_GETNAME_NEW}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_GETADDRESS_NEW}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>${table:data.IL_TAX2}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_REMARK}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_G1EX}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件者統編</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件電話</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_EXTEL}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.IL_EXNO}</t>
+    <t>稅則</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_TAX}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -214,6 +246,8 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -232,11 +266,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -289,7 +325,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +354,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -331,7 +370,7 @@
     <cellStyle name="3232" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -343,50 +382,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -428,13 +423,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1323975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -747,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -759,78 +754,81 @@
     <col min="2" max="2" width="18.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="51.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="58.25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="5" max="6" width="10.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.25" style="3" customWidth="1"/>
+    <col min="16" max="17" width="58.25" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:21" ht="19.5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="19.5">
+    <row r="2" spans="1:21" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="19.5">
+    <row r="3" spans="1:21" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="33">
+    <row r="4" spans="1:21" s="8" customFormat="1" ht="33">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -847,51 +845,63 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>40</v>
+      <c r="U4" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:21">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>22</v>
@@ -900,49 +910,61 @@
         <v>23</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="Q5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -266,13 +266,11 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -374,13 +372,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -389,6 +380,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -744,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -972,17 +970,17 @@
       <formula>AND(COUNTIF($B$5:$B$62731,C4)+COUNTIF($B$1:$B$4,C4)&gt;1,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD1000">
-    <cfRule type="expression" dxfId="2" priority="7">
+  <conditionalFormatting sqref="B5:B2000">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>LENB($B5)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:XFD2000">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$A5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$A5="普特貨"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B1000">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>LENB($B5)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -293,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -316,6 +316,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -323,7 +332,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,36 +348,213 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="3232" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -421,13 +607,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1323975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -742,26 +928,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.25" style="3" customWidth="1"/>
-    <col min="16" max="17" width="58.25" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="10.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="51.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.25" style="3" customWidth="1"/>
+    <col min="17" max="18" width="58.25" style="3" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" style="3" bestFit="1" customWidth="1"/>
@@ -769,117 +955,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:21" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:21" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" ht="33">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="33">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>38</v>
@@ -891,96 +1079,110 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$5:$B$62731,C4)+COUNTIF($B$1:$B$4,C4)&gt;1,NOT(ISBLANK(C4)))</formula>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+      <formula>AND(COUNTIF($C$5:$C$62731,D4)+COUNTIF($C$1:$C$4,D4)&gt;1,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B2000">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>LENB($B5)&gt;5</formula>
+  <conditionalFormatting sqref="C5:C4000">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$C5="移倉"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$C5="X3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>$C5="G1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>LENB($C5)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD2000">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$A5="特特貨"</formula>
+  <conditionalFormatting sqref="A5:XFD4000">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$A5="普特貨"</formula>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$B5="普特貨"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F4000">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>VALUE($F5)&gt;70</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -332,7 +332,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,24 +366,41 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="3232" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -444,34 +461,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -480,107 +469,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -928,22 +816,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
     <col min="6" max="7" width="10.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="51.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="51.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="20.25" style="3" customWidth="1"/>
@@ -955,21 +843,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="Q1" s="5"/>
@@ -980,31 +868,31 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:21" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1043,10 +931,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>18</v>
@@ -1108,10 +996,10 @@
         <v>25</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>28</v>
@@ -1145,44 +1033,51 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>AND(COUNTIF($C$5:$C$62731,D4)+COUNTIF($C$1:$C$4,D4)&gt;1,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C4000">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$C5="移倉"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$C5="X3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$C5="G1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>LENB($C5)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD4000">
-    <cfRule type="expression" dxfId="13" priority="11">
+  <conditionalFormatting sqref="A5:I5 A6:XFD4000 K5:XFD5">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>$B5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F4000">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>VALUE($F5)&gt;70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$B5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$B5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\20170116_Module\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EWS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -390,6 +390,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -455,20 +469,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -817,7 +817,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I12" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1041,44 +1041,47 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>AND(COUNTIF($C$5:$C$62731,D4)+COUNTIF($C$1:$C$4,D4)&gt;1,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C4000">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$C5="移倉"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$C5="X3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$C5="G1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>LENB($C5)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:I5 A6:XFD4000 K5:XFD5">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$B5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F4000">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>VALUE($F5)&gt;70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B5="普特貨"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EWS\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="班機表欄位" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,11 +266,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -386,14 +388,7 @@
     <cellStyle name="3232" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -816,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I11:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1041,47 +1036,47 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
       <formula>AND(COUNTIF($C$5:$C$62731,D4)+COUNTIF($C$1:$C$4,D4)&gt;1,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C4000">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$C5="移倉"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$C5="X3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C5="G1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>LENB($C5)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:I5 A6:XFD4000 K5:XFD5">
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$B5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F4000">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>VALUE($F5)&gt;70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$B5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/templates/班機表欄位.xlsx
+++ b/templates/班機表欄位.xlsx
@@ -388,7 +388,21 @@
     <cellStyle name="3232" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -420,6 +434,70 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -434,28 +512,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -812,7 +890,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1036,47 +1114,47 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="13" stopIfTrue="1">
       <formula>AND(COUNTIF($C$5:$C$62731,D4)+COUNTIF($C$1:$C$4,D4)&gt;1,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C4000">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>$C5="移倉"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>$C5="X3"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C5="G1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>LENB($C5)&gt;5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:I5 A6:XFD4000 K5:XFD5">
-    <cfRule type="expression" dxfId="5" priority="14">
-      <formula>$B5="特特貨"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15">
-      <formula>$B5="普特貨"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F5:F4000">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>VALUE($F5)&gt;70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$B5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$B5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:I5 A6:XFD8000 K5:XFD5">
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$B5="特特貨"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$B5="普特貨"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C8000">
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>$C5="移倉"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>$C5="X3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>$C5="G1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="8">
+      <formula>LENB($C5)&gt;5</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
